--- a/data/Clients.xlsx
+++ b/data/Clients.xlsx
@@ -1,169 +1,193 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="NewClients" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NewClients" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NewClients1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NewClients2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">code_client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dupont SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kora SARL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+123456789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000002</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -343,125 +367,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.24"/>
+    <col width="15.72" customWidth="1" style="2" min="1" max="1"/>
+    <col width="21.98" customWidth="1" style="2" min="2" max="2"/>
+    <col width="18.22" customWidth="1" style="2" min="3" max="3"/>
+    <col width="12.24" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>code_client</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>nom</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>IFU</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Dupont SA</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>970000000</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="2" t="n">
         <v>1234567890123</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="n">
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Kora SARL</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>980000000</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>9876543210987</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>code_client</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>nom</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>IFU</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>new_entry</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>NEW NAME</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>+123456789</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>0000000002</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>code_client</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>nom</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>IFU</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>lio</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>1234567890123</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>code_client</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>nom</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>IFU</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>wede</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1234567890123</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/Clients.xlsx
+++ b/data/Clients.xlsx
@@ -11,6 +11,7 @@
     <sheet name="NewClients" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="NewClients1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="NewClients2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NewClients3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -616,6 +617,69 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>wede</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>1234567890123</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>code_client</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>nom</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>IFU</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>C004</t>
@@ -623,12 +687,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>wede</t>
+          <t>lionel sisso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/data/Clients.xlsx
+++ b/data/Clients.xlsx
@@ -8,23 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore.LE_F\OneDrive\Documents\TP\Application-Console-de-Facturation-et-Statistiques-de-Ventes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8C7FCA-5A51-4977-BD41-25DE30FB9D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA387F3-429D-4EA5-B7B3-A40D63D4A921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="NewClients" sheetId="2" r:id="rId2"/>
-    <sheet name="NewClients1" sheetId="3" r:id="rId3"/>
-    <sheet name="NewClients2" sheetId="4" r:id="rId4"/>
-    <sheet name="NewClients3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>code_client</t>
   </si>
@@ -38,68 +34,71 @@
     <t>IFU</t>
   </si>
   <si>
+    <t>C00001</t>
+  </si>
+  <si>
     <t>Dupont SA</t>
   </si>
   <si>
+    <t>C00002</t>
+  </si>
+  <si>
     <t>Kora SARL</t>
   </si>
   <si>
-    <t>new_entry</t>
-  </si>
-  <si>
-    <t>NEW NAME</t>
-  </si>
-  <si>
-    <t>+123456789</t>
-  </si>
-  <si>
-    <t>0000000002</t>
-  </si>
-  <si>
-    <t>C004</t>
-  </si>
-  <si>
-    <t>lio</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1234567890123</t>
-  </si>
-  <si>
-    <t>wede</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>lionel sisso</t>
-  </si>
-  <si>
-    <t>C00001</t>
-  </si>
-  <si>
-    <t>C00002</t>
+    <t>Florent b</t>
+  </si>
+  <si>
+    <t>C00004</t>
+  </si>
+  <si>
+    <t>Florent c</t>
+  </si>
+  <si>
+    <t>C00005</t>
+  </si>
+  <si>
+    <t>Florent d</t>
+  </si>
+  <si>
+    <t>C00006</t>
+  </si>
+  <si>
+    <t>david</t>
+  </si>
+  <si>
+    <t>C00007</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>C00008</t>
+  </si>
+  <si>
+    <t>Ange KORE</t>
+  </si>
+  <si>
+    <t>302025487</t>
+  </si>
+  <si>
+    <t>1231256478985</t>
+  </si>
+  <si>
+    <t>C00003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -115,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,31 +137,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -170,7 +151,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -187,10 +168,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -228,128 +209,234 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -361,21 +448,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -389,12 +473,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>970000000</v>
@@ -403,12 +487,12 @@
         <v>1234567890123</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>980000000</v>
@@ -417,170 +501,88 @@
         <v>9876543210987</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4">
+        <v>121212416</v>
+      </c>
+      <c r="D4">
+        <v>9876543274521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5">
+        <v>147852369</v>
+      </c>
+      <c r="D5">
+        <v>1234567898745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C6">
+        <v>125647896</v>
+      </c>
+      <c r="D6">
+        <v>1212121212121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7">
+        <v>123456789</v>
+      </c>
+      <c r="D7">
+        <v>1111112222365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+      <c r="C8">
+        <v>229229229</v>
+      </c>
+      <c r="D8">
+        <v>2292292292292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/Clients.xlsx
+++ b/data/Clients.xlsx
@@ -1,114 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore.LE_F\OneDrive\Documents\TP\Application-Console-de-Facturation-et-Statistiques-de-Ventes\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA387F3-429D-4EA5-B7B3-A40D63D4A921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>code_client</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>IFU</t>
-  </si>
-  <si>
-    <t>C00001</t>
-  </si>
-  <si>
-    <t>Dupont SA</t>
-  </si>
-  <si>
-    <t>C00002</t>
-  </si>
-  <si>
-    <t>Kora SARL</t>
-  </si>
-  <si>
-    <t>Florent b</t>
-  </si>
-  <si>
-    <t>C00004</t>
-  </si>
-  <si>
-    <t>Florent c</t>
-  </si>
-  <si>
-    <t>C00005</t>
-  </si>
-  <si>
-    <t>Florent d</t>
-  </si>
-  <si>
-    <t>C00006</t>
-  </si>
-  <si>
-    <t>david</t>
-  </si>
-  <si>
-    <t>C00007</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>C00008</t>
-  </si>
-  <si>
-    <t>Ange KORE</t>
-  </si>
-  <si>
-    <t>302025487</t>
-  </si>
-  <si>
-    <t>1231256478985</t>
-  </si>
-  <si>
-    <t>C00003</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -447,142 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>code_client</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>nom</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IFU</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dupont SA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>970000000</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1234567890123</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C00002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kora SARL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>980000000</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>9876543210987</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C00003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Florent b</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>121212416</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>9876543274521</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C00004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Florent c</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>147852369</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>1234567898745</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C00005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Florent d</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>125647896</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>1212121212121</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C00006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>david</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>123456789</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>1111112222365</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C00007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Spiderman</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>229229229</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>2292292292292</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C00008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ange KORE</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>302025487</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1231256478985</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C00009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Florent B</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>061804972</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1213141516171</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/Clients.xlsx
+++ b/data/Clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,14 +610,32 @@
           <t>Florent B</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>061804972</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1213141516171</t>
+      <c r="C10" t="n">
+        <v>61804972</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1213141516171</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C00010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BOUDZ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>618049728</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1414141414523</t>
         </is>
       </c>
     </row>

--- a/data/Clients.xlsx
+++ b/data/Clients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,14 +628,32 @@
           <t>BOUDZ</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>618049728</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1414141414523</t>
+      <c r="C11" t="n">
+        <v>618049728</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1414141414523</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C00011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>flore</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>121212121</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1212121212547</t>
         </is>
       </c>
     </row>
